--- a/pub_forecast.xlsx
+++ b/pub_forecast.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,675 +453,840 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/05/2025</t>
+          <t>01/06/2025</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Chips</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Chips</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>03/05/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Chips</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04/05/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Chips</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Chips</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06/05/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Chips</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07/05/2025</t>
+          <t>07/06/2025</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Chips</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08/05/2025</t>
+          <t>08/06/2025</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Chips</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>09/05/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Chips</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10/05/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Chips</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11/05/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Chips</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12/05/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Chips</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13/05/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Chips</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14/05/2025</t>
+          <t>14/06/2025</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Chips</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15/05/2025</t>
+          <t>01/06/2025</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Coke</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Coke</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17/05/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Coke</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18/05/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Coke</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19/05/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Coke</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Coke</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21/05/2025</t>
+          <t>07/06/2025</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Coke</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>22/05/2025</t>
+          <t>08/06/2025</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Coke</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23/05/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Coke</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24/05/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Coke</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>25/05/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Coke</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26/05/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Coke</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27/05/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Coke</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>14/06/2025</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Coke</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>01/06/2025</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Dessert</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Dessert</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>31/05/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Dessert</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01/06/2025</t>
+          <t>04/06/2025</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Dessert</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Dessert</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Dessert</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>04/06/2025</t>
+          <t>07/06/2025</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Dessert</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>08/06/2025</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Dessert</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>09/06/2025</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Dessert</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>07/06/2025</t>
+          <t>10/06/2025</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Dessert</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>08/06/2025</t>
+          <t>11/06/2025</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Dessert</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>09/06/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Dessert</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10/06/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Dessert</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>11/06/2025</t>
+          <t>14/06/2025</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>Dessert</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>12/06/2025</t>
+          <t>01/06/2025</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>MainCourse Meal</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>13/06/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Beer</t>
+          <t>MainCourse Meal</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>03/06/2025</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>20</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MainCourse Meal</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04/06/2025</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>21</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>MainCourse Meal</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>19</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>MainCourse Meal</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>23</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MainCourse Meal</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>07/06/2025</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>18</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MainCourse Meal</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>08/06/2025</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>20</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>MainCourse Meal</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>09/06/2025</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>18</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MainCourse Meal</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>10/06/2025</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>20</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MainCourse Meal</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>11/06/2025</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>21</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MainCourse Meal</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>19</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MainCourse Meal</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>13/06/2025</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>23</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MainCourse Meal</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>14/06/2025</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>130</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Beer</t>
+      <c r="B57" t="n">
+        <v>18</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MainCourse Meal</t>
         </is>
       </c>
     </row>
